--- a/Completed Projects/Visa KHI Fit Out Project DMC Karachi/BOQ/Comibined Bill (Verified).xlsx
+++ b/Completed Projects/Visa KHI Fit Out Project DMC Karachi/BOQ/Comibined Bill (Verified).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Visa KHI Fit Out Project DMC Karachi\BOQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Visa KHI Fit Out Project DMC Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7874096B-1F72-49EB-99C3-776F6884FF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823EE113-AD21-4546-B831-A935A161387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4679,6 +4679,21 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4699,21 +4714,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10951,7 +10951,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -11085,19 +11085,19 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="108" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="108" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="126"/>
       <c r="B17" s="126" t="s">
         <v>192</v>
       </c>
       <c r="C17" s="127"/>
     </row>
-    <row r="18" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="108" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="128"/>
       <c r="B18" s="129"/>
       <c r="C18" s="109"/>
     </row>
-    <row r="19" spans="1:3" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="117"/>
       <c r="B19" s="122" t="s">
         <v>194</v>
@@ -11107,7 +11107,7 @@
         <v>3091025.3200000003</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="117"/>
       <c r="B20" s="122" t="s">
         <v>203</v>
@@ -11116,7 +11116,7 @@
         <v>2273000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="117"/>
       <c r="B21" s="122" t="s">
         <v>195</v>
@@ -11125,8 +11125,12 @@
         <f>C19+C13+C20</f>
         <v>18834843.920000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="108">
+        <f>C20+C13</f>
+        <v>15743818.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="117"/>
       <c r="B22" s="122" t="s">
         <v>193</v>
@@ -11136,7 +11140,7 @@
         <v>847567.97640000004</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="117"/>
       <c r="B23" s="122" t="s">
         <v>202</v>
@@ -11146,7 +11150,7 @@
         <v>19682411.896400001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="117"/>
       <c r="B24" s="122" t="s">
         <v>196</v>
@@ -11156,7 +11160,7 @@
         <v>15775224</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="117"/>
       <c r="B25" s="122" t="s">
         <v>197</v>
@@ -11166,34 +11170,34 @@
         <v>3907187.8964000009</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="108" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="130"/>
       <c r="B26" s="129"/>
       <c r="C26" s="109"/>
     </row>
-    <row r="27" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" s="108" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="131"/>
       <c r="B27" s="129"/>
       <c r="C27" s="109" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="108" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="131"/>
       <c r="B28" s="129"/>
       <c r="C28" s="109"/>
     </row>
-    <row r="29" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" s="108" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="132"/>
       <c r="B29" s="133"/>
       <c r="C29" s="109"/>
     </row>
-    <row r="30" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" s="108" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="132"/>
       <c r="B30" s="133"/>
       <c r="C30" s="109"/>
     </row>
-    <row r="31" spans="1:3" s="108" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" s="108" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="132"/>
       <c r="B31" s="134"/>
       <c r="C31" s="109"/>
@@ -11239,13 +11243,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -11261,13 +11265,13 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -11283,20 +11287,20 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="150"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
     </row>
     <row r="8" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -11309,10 +11313,10 @@
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152"/>
+      <c r="C9" s="145"/>
       <c r="D9" s="12"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
@@ -11320,8 +11324,8 @@
     </row>
     <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
@@ -11329,10 +11333,10 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="147"/>
+      <c r="C11" s="152"/>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
@@ -11343,8 +11347,8 @@
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="145"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="150"/>
       <c r="D12" s="4"/>
       <c r="E12" s="6"/>
     </row>
@@ -11352,10 +11356,10 @@
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="147"/>
+      <c r="C13" s="152"/>
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
@@ -11366,17 +11370,17 @@
     </row>
     <row r="14" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="146" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="142"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="10"/>
       <c r="E15" s="96">
         <f>SUM(E10:E14)</f>
@@ -11425,17 +11429,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Completed Projects/Visa KHI Fit Out Project DMC Karachi/BOQ/Comibined Bill (Verified).xlsx
+++ b/Completed Projects/Visa KHI Fit Out Project DMC Karachi/BOQ/Comibined Bill (Verified).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Visa KHI Fit Out Project DMC Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823EE113-AD21-4546-B831-A935A161387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553344B8-1849-4014-9E13-A230D7038C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4679,21 +4679,6 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4714,6 +4699,21 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10951,7 +10951,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -10960,7 +10960,9 @@
     <col min="2" max="2" width="58.7109375" style="109" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="109" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" style="108" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="109"/>
+    <col min="5" max="5" width="9.140625" style="109"/>
+    <col min="6" max="6" width="27.42578125" style="109" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="109"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -11156,8 +11158,8 @@
         <v>196</v>
       </c>
       <c r="C24" s="123">
-        <f>14475224+1300000</f>
-        <v>15775224</v>
+        <f>16975224+1300000</f>
+        <v>18275224</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -11167,7 +11169,7 @@
       </c>
       <c r="C25" s="123">
         <f>C23-C24</f>
-        <v>3907187.8964000009</v>
+        <v>1407187.8964000009</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="108" customFormat="1" x14ac:dyDescent="0.35">
@@ -11243,13 +11245,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -11265,13 +11267,13 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -11287,20 +11289,20 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="143"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="151" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
     </row>
     <row r="8" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -11313,10 +11315,10 @@
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="145"/>
+      <c r="C9" s="152"/>
       <c r="D9" s="12"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
@@ -11324,8 +11326,8 @@
     </row>
     <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="150"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
@@ -11333,10 +11335,10 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="152"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
@@ -11347,8 +11349,8 @@
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="150"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="145"/>
       <c r="D12" s="4"/>
       <c r="E12" s="6"/>
     </row>
@@ -11356,10 +11358,10 @@
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="152"/>
+      <c r="C13" s="147"/>
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
@@ -11370,17 +11372,17 @@
     </row>
     <row r="14" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="147"/>
+      <c r="C15" s="142"/>
       <c r="D15" s="10"/>
       <c r="E15" s="96">
         <f>SUM(E10:E14)</f>
@@ -11429,17 +11431,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Completed Projects/Visa KHI Fit Out Project DMC Karachi/BOQ/Comibined Bill (Verified).xlsx
+++ b/Completed Projects/Visa KHI Fit Out Project DMC Karachi/BOQ/Comibined Bill (Verified).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Visa KHI Fit Out Project DMC Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553344B8-1849-4014-9E13-A230D7038C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA893F58-2C1A-4CD7-9C65-E11B86014D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2667,7 +2667,7 @@
     <definedName name="ZZZZZZZZZZZZZZ" hidden="1">#REF!</definedName>
     <definedName name="っｋ" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -4679,6 +4679,21 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4699,21 +4714,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10950,8 +10950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B2285F-9A53-4E31-B589-A72E744EEDE5}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -11160,6 +11160,9 @@
       <c r="C24" s="123">
         <f>16975224+1300000</f>
         <v>18275224</v>
+      </c>
+      <c r="D24" s="108">
+        <v>19682463</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="108" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -11245,13 +11248,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -11267,13 +11270,13 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -11289,20 +11292,20 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="150"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
     </row>
     <row r="8" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -11315,10 +11318,10 @@
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="152"/>
+      <c r="C9" s="145"/>
       <c r="D9" s="12"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
@@ -11326,8 +11329,8 @@
     </row>
     <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
@@ -11335,10 +11338,10 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="147"/>
+      <c r="C11" s="152"/>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
@@ -11349,8 +11352,8 @@
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="145"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="150"/>
       <c r="D12" s="4"/>
       <c r="E12" s="6"/>
     </row>
@@ -11358,10 +11361,10 @@
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="147"/>
+      <c r="C13" s="152"/>
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
@@ -11372,17 +11375,17 @@
     </row>
     <row r="14" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="146" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="142"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="10"/>
       <c r="E15" s="96">
         <f>SUM(E10:E14)</f>
@@ -11431,17 +11434,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Completed Projects/Visa KHI Fit Out Project DMC Karachi/BOQ/Comibined Bill (Verified).xlsx
+++ b/Completed Projects/Visa KHI Fit Out Project DMC Karachi/BOQ/Comibined Bill (Verified).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Visa KHI Fit Out Project DMC Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA893F58-2C1A-4CD7-9C65-E11B86014D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DF7400-F053-4FFA-B584-0B1FB4B4D6DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4679,21 +4679,6 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4714,6 +4699,21 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4890,7 +4890,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Fee Rate Summary"/>
@@ -5067,7 +5067,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3 (2)"/>
@@ -6994,11 +6994,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
@@ -7019,7 +7016,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -7056,7 +7053,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Bill 1"/>
@@ -7353,7 +7350,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -7655,7 +7652,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover"/>
@@ -7782,7 +7779,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Fill this out first..."/>
@@ -9480,7 +9477,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CONC"/>
@@ -10569,7 +10566,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -10616,7 +10613,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover"/>
@@ -10662,9 +10659,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10702,9 +10699,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10737,9 +10734,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10772,9 +10786,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10950,8 +10981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B2285F-9A53-4E31-B589-A72E744EEDE5}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -11158,8 +11189,8 @@
         <v>196</v>
       </c>
       <c r="C24" s="123">
-        <f>16975224+1300000</f>
-        <v>18275224</v>
+        <f>16975224+1300000+1407188</f>
+        <v>19682412</v>
       </c>
       <c r="D24" s="108">
         <v>19682463</v>
@@ -11172,7 +11203,7 @@
       </c>
       <c r="C25" s="123">
         <f>C23-C24</f>
-        <v>1407187.8964000009</v>
+        <v>-0.10359999909996986</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="108" customFormat="1" x14ac:dyDescent="0.35">
@@ -11248,13 +11279,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -11270,13 +11301,13 @@
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -11292,20 +11323,20 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="143"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="151" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
     </row>
     <row r="8" spans="1:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -11318,10 +11349,10 @@
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="145"/>
+      <c r="C9" s="152"/>
       <c r="D9" s="12"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
@@ -11329,8 +11360,8 @@
     </row>
     <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="150"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
@@ -11338,10 +11369,10 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="152"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
@@ -11352,8 +11383,8 @@
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="150"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="145"/>
       <c r="D12" s="4"/>
       <c r="E12" s="6"/>
     </row>
@@ -11361,10 +11392,10 @@
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="152"/>
+      <c r="C13" s="147"/>
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
@@ -11375,17 +11406,17 @@
     </row>
     <row r="14" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="147"/>
+      <c r="C15" s="142"/>
       <c r="D15" s="10"/>
       <c r="E15" s="96">
         <f>SUM(E10:E14)</f>
@@ -11434,17 +11465,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -11650,7 +11681,7 @@
       <c r="J10" s="72"/>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" spans="1:11" ht="204" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>1.1000000000000001</v>
       </c>
@@ -12721,7 +12752,7 @@
       <c r="J59" s="72"/>
       <c r="K59" s="27"/>
     </row>
-    <row r="60" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>3</v>
       </c>
@@ -14719,7 +14750,7 @@
       <c r="J144" s="72"/>
       <c r="K144" s="27"/>
     </row>
-    <row r="145" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <f>A144</f>
         <v>14</v>
@@ -15543,7 +15574,7 @@
       <c r="J182" s="72"/>
       <c r="K182" s="27"/>
     </row>
-    <row r="183" spans="1:11" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="153" x14ac:dyDescent="0.25">
       <c r="A183" s="28">
         <f>A182</f>
         <v>21</v>
@@ -17543,7 +17574,7 @@
       <c r="J62" s="72"/>
       <c r="K62" s="27"/>
     </row>
-    <row r="63" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <f>A62</f>
         <v>9</v>
